--- a/refs/heads/rc2-umbrella/StructureDefinition-shc-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shc-composition.xlsx
@@ -679,7 +679,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-patient)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-patient)
 </t>
   </si>
   <si>
@@ -858,7 +858,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization)
 </t>
   </si>
   <si>

--- a/refs/heads/rc2-umbrella/StructureDefinition-shc-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shc-composition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="466">
   <si>
     <t>Path</t>
   </si>
@@ -658,13 +658,7 @@
     <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+    <t>https://who-int.github.io/svc/refs/heads/rc2/ValueSet/SHC-Category-ValueSet</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1195,6 +1189,9 @@
   </si>
   <si>
     <t>An event can further specialize the act inherent in the typeCode, such as where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more eventCodes are included, they SHALL NOT conflict with the values inherent in the classCode, practiceSettingCode or typeCode, as such a conflict would create an ambiguous situation. This short list of codes is provided to be used as key words for certain types of queries.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>This list of codes represents the main clinical acts being documented.</t>
@@ -4064,7 +4061,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>202</v>
       </c>
@@ -4074,13 +4071,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -4126,13 +4123,11 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -4165,16 +4160,16 @@
         <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>201</v>
@@ -4182,7 +4177,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4205,19 +4200,19 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4266,7 +4261,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4284,21 +4279,21 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4410,7 +4405,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4524,7 +4519,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4550,13 +4545,13 @@
         <v>55</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4606,7 +4601,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4615,7 +4610,7 @@
         <v>53</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>65</v>
@@ -4638,7 +4633,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4664,13 +4659,13 @@
         <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4699,28 +4694,28 @@
         <v>147</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4752,7 +4747,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4778,13 +4773,13 @@
         <v>111</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4834,7 +4829,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4852,7 +4847,7 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4866,7 +4861,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4892,13 +4887,13 @@
         <v>55</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4948,7 +4943,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4980,7 +4975,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5003,17 +4998,17 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -5062,7 +5057,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5077,24 +5072,24 @@
         <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5117,19 +5112,19 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5178,7 +5173,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>53</v>
@@ -5193,24 +5188,24 @@
         <v>65</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5233,17 +5228,17 @@
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5292,7 +5287,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>53</v>
@@ -5307,24 +5302,24 @@
         <v>65</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5350,13 +5345,13 @@
         <v>55</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5406,7 +5401,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>53</v>
@@ -5424,13 +5419,13 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5438,7 +5433,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5464,13 +5459,13 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5499,10 +5494,10 @@
         <v>136</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5520,7 +5515,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5538,13 +5533,13 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5552,7 +5547,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5575,19 +5570,19 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5636,7 +5631,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5654,13 +5649,13 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5668,7 +5663,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5780,7 +5775,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5894,11 +5889,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5920,10 +5915,10 @@
         <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>102</v>
@@ -5978,7 +5973,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6010,7 +6005,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6036,14 +6031,14 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6071,10 +6066,10 @@
         <v>136</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -6092,7 +6087,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>53</v>
@@ -6110,10 +6105,10 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -6124,7 +6119,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6147,17 +6142,17 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -6206,7 +6201,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6224,10 +6219,10 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6238,7 +6233,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6261,17 +6256,17 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6320,7 +6315,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6338,21 +6333,21 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6378,16 +6373,16 @@
         <v>173</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6436,7 +6431,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6454,13 +6449,13 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6468,7 +6463,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6491,16 +6486,16 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6550,7 +6545,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6568,13 +6563,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6582,7 +6577,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6694,7 +6689,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6808,11 +6803,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6834,10 +6829,10 @@
         <v>99</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>102</v>
@@ -6892,7 +6887,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6924,7 +6919,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6950,13 +6945,13 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6985,10 +6980,10 @@
         <v>136</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -7006,7 +7001,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>53</v>
@@ -7024,13 +7019,13 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7038,7 +7033,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7061,13 +7056,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7118,7 +7113,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>53</v>
@@ -7136,13 +7131,13 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7150,7 +7145,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7173,19 +7168,19 @@
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7234,7 +7229,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7252,13 +7247,13 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7266,7 +7261,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7378,7 +7373,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7492,11 +7487,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7518,10 +7513,10 @@
         <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>102</v>
@@ -7576,7 +7571,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7608,7 +7603,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7634,13 +7629,13 @@
         <v>142</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7666,14 +7661,14 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7690,7 +7685,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7714,7 +7709,7 @@
         <v>199</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7722,7 +7717,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7748,10 +7743,10 @@
         <v>167</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7802,7 +7797,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7820,13 +7815,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7834,7 +7829,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7857,13 +7852,13 @@
         <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7914,7 +7909,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7932,7 +7927,7 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>124</v>
@@ -7946,7 +7941,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7969,13 +7964,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8026,7 +8021,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8038,16 +8033,16 @@
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8058,7 +8053,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8170,7 +8165,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8284,11 +8279,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8310,10 +8305,10 @@
         <v>99</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>102</v>
@@ -8368,7 +8363,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8400,11 +8395,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8426,16 +8421,16 @@
         <v>55</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
@@ -8484,7 +8479,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8502,10 +8497,10 @@
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8516,7 +8511,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8542,16 +8537,16 @@
         <v>142</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8576,14 +8571,14 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
       </c>
@@ -8600,7 +8595,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8632,7 +8627,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8655,17 +8650,17 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -8714,7 +8709,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8732,21 +8727,21 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8769,16 +8764,16 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8828,7 +8823,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8849,7 +8844,7 @@
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8860,7 +8855,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8886,13 +8881,13 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8942,7 +8937,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8951,7 +8946,7 @@
         <v>53</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>65</v>
@@ -8960,10 +8955,10 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -8974,7 +8969,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9000,16 +8995,16 @@
         <v>73</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9037,11 +9032,11 @@
         <v>136</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
       </c>
@@ -9058,7 +9053,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9076,7 +9071,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>124</v>
@@ -9090,7 +9085,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9116,16 +9111,16 @@
         <v>142</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9153,11 +9148,11 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
       </c>
@@ -9174,7 +9169,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9192,7 +9187,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>124</v>
@@ -9206,7 +9201,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9229,16 +9224,16 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9288,7 +9283,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9297,7 +9292,7 @@
         <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>65</v>
@@ -9306,10 +9301,10 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9320,7 +9315,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9346,16 +9341,16 @@
         <v>142</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9383,11 +9378,11 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9404,7 +9399,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9413,7 +9408,7 @@
         <v>53</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>65</v>
@@ -9422,7 +9417,7 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>124</v>
@@ -9436,7 +9431,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9462,13 +9457,13 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9518,7 +9513,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9527,7 +9522,7 @@
         <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>65</v>
@@ -9536,10 +9531,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>

--- a/refs/heads/rc2-umbrella/StructureDefinition-shc-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shc-composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="470">
   <si>
     <t>Path</t>
   </si>
@@ -1240,6 +1240,10 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:code}
+</t>
+  </si>
+  <si>
     <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
 cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
@@ -1454,6 +1458,21 @@
   </si>
   <si>
     <t>.component.section</t>
+  </si>
+  <si>
+    <t>qrCode</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://who-int.github.io/svc/refs/heads/rc2/CodeSystem/SHC-SectionCode-CodeSystem"/&gt;
+    &lt;code value="qrdoc"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-documentreference-qr)
+</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN69"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8009,11 +8028,9 @@
         <v>41</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>41</v>
       </c>
@@ -8033,16 +8050,16 @@
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8053,7 +8070,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8165,7 +8182,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8279,7 +8296,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8395,11 +8412,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8421,16 +8438,16 @@
         <v>55</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
@@ -8479,7 +8496,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8511,7 +8528,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8537,16 +8554,16 @@
         <v>142</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8574,10 +8591,10 @@
         <v>380</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
@@ -8595,7 +8612,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8627,7 +8644,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8650,13 +8667,13 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
@@ -8709,7 +8726,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8741,7 +8758,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8767,13 +8784,13 @@
         <v>389</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8823,7 +8840,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8844,7 +8861,7 @@
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8855,7 +8872,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8881,13 +8898,13 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8937,7 +8954,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8946,7 +8963,7 @@
         <v>53</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>65</v>
@@ -8955,10 +8972,10 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -8969,7 +8986,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8995,16 +9012,16 @@
         <v>73</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9032,10 +9049,10 @@
         <v>136</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
@@ -9053,7 +9070,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9071,7 +9088,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>124</v>
@@ -9085,7 +9102,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9111,16 +9128,16 @@
         <v>142</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9148,10 +9165,10 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
@@ -9169,7 +9186,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9187,7 +9204,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>124</v>
@@ -9201,7 +9218,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9227,13 +9244,13 @@
         <v>389</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9283,7 +9300,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9292,7 +9309,7 @@
         <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>65</v>
@@ -9301,10 +9318,10 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9315,7 +9332,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9341,16 +9358,16 @@
         <v>142</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9378,10 +9395,10 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9399,7 +9416,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9408,7 +9425,7 @@
         <v>53</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>65</v>
@@ -9417,7 +9434,7 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>124</v>
@@ -9431,7 +9448,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9457,13 +9474,13 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9513,7 +9530,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9522,7 +9539,7 @@
         <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>65</v>
@@ -9531,20 +9548,1626 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AJ70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN69" t="s" s="2">
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN69">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9554,7 +11177,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/rc2-umbrella/StructureDefinition-shc-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shc-composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="473">
   <si>
     <t>Path</t>
   </si>
@@ -1472,6 +1472,21 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-documentreference-qr)
+</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://who-int.github.io/svc/refs/heads/rc2/CodeSystem/SHC-SectionCode-CodeSystem"/&gt;
+    &lt;code value="uri"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
 </sst>
@@ -1621,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7968,7 +7983,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>43</v>
@@ -9572,7 +9587,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>43</v>
@@ -11166,8 +11181,1614 @@
         <v>41</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN83">
+  <autoFilter ref="A1:AN97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11177,7 +12798,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
